--- a/spliced/falling/2023-03-25_18-01-37/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-37/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.475497364997865</v>
+        <v>-2.025566756725311</v>
       </c>
       <c r="D2" t="n">
-        <v>3.523229420185089</v>
+        <v>3.52062651515007</v>
       </c>
       <c r="E2" t="n">
-        <v>2.537566900253297</v>
+        <v>2.27691987156868</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0039706239476799</v>
+        <v>-0.0397062413394451</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0705549344420433</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0328340083360672</v>
+        <v>0.0332921557128429</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.48767375946045</v>
+        <v>-2.230706214904786</v>
       </c>
       <c r="D3" t="n">
-        <v>3.061535835266112</v>
+        <v>3.561713695526123</v>
       </c>
       <c r="E3" t="n">
-        <v>3.86157149076462</v>
+        <v>2.031704187393189</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0146607663482427</v>
+        <v>-0.0200058370828628</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2353358417749405</v>
+        <v>-0.0035124751739203</v>
       </c>
       <c r="H3" t="n">
-        <v>0.07696902006864539</v>
+        <v>0.0421497002243995</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.442349374294281</v>
+        <v>-2.475497364997865</v>
       </c>
       <c r="D4" t="n">
-        <v>2.902286112308502</v>
+        <v>3.523229420185089</v>
       </c>
       <c r="E4" t="n">
-        <v>4.137762367725372</v>
+        <v>2.537566900253297</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0704022198915481</v>
+        <v>-0.0039706239476799</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2420553565025329</v>
+        <v>0.0705549344420433</v>
       </c>
       <c r="H4" t="n">
-        <v>0.08109235763549801</v>
+        <v>0.0328340083360672</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.809046030044556</v>
+        <v>-2.48767375946045</v>
       </c>
       <c r="D5" t="n">
-        <v>1.600962877273557</v>
+        <v>3.061535835266112</v>
       </c>
       <c r="E5" t="n">
-        <v>4.795935153961183</v>
+        <v>3.86157149076462</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6050620079040527</v>
+        <v>-0.0146607663482427</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2802344262599945</v>
+        <v>0.2353358417749405</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07590000331401819</v>
+        <v>0.07696902006864539</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.426159977912904</v>
+        <v>-2.442349374294281</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2882512211799662</v>
+        <v>2.902286112308502</v>
       </c>
       <c r="E6" t="n">
-        <v>5.237384021282194</v>
+        <v>4.137762367725372</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1878410577774047</v>
+        <v>0.0704022198915481</v>
       </c>
       <c r="G6" t="n">
-        <v>0.7900014519691467</v>
+        <v>0.2420553565025329</v>
       </c>
       <c r="H6" t="n">
-        <v>0.304669052362442</v>
+        <v>0.08109235763549801</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-4.615099787712106</v>
+        <v>-2.809046030044556</v>
       </c>
       <c r="D7" t="n">
-        <v>0.4410536289215286</v>
+        <v>1.600962877273557</v>
       </c>
       <c r="E7" t="n">
-        <v>4.911977410316469</v>
+        <v>4.795935153961183</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3132211565971374</v>
+        <v>0.6050620079040527</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3736968040466308</v>
+        <v>0.2802344262599945</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0494800843298435</v>
+        <v>0.07590000331401819</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-5.570275843143422</v>
+        <v>-3.426159977912904</v>
       </c>
       <c r="D8" t="n">
-        <v>5.792195498943334</v>
+        <v>-0.2882512211799662</v>
       </c>
       <c r="E8" t="n">
-        <v>7.507518291473446</v>
+        <v>5.237384021282194</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6346889734268188</v>
+        <v>0.1878410577774047</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.973566472530365</v>
+        <v>0.7900014519691467</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2535090744495392</v>
+        <v>0.304669052362442</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4.738878250122034</v>
+        <v>-4.615099787712106</v>
       </c>
       <c r="D9" t="n">
-        <v>7.207733154296871</v>
+        <v>0.4410536289215286</v>
       </c>
       <c r="E9" t="n">
-        <v>21.9623451232909</v>
+        <v>4.911977410316469</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.739883422851562</v>
+        <v>0.3132211565971374</v>
       </c>
       <c r="G9" t="n">
-        <v>3.34677791595459</v>
+        <v>-0.3736968040466308</v>
       </c>
       <c r="H9" t="n">
-        <v>-2.103209018707275</v>
+        <v>0.0494800843298435</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-3.471131086349493</v>
+        <v>-5.570275843143422</v>
       </c>
       <c r="D10" t="n">
-        <v>6.420480489730835</v>
+        <v>5.792195498943334</v>
       </c>
       <c r="E10" t="n">
-        <v>-4.152171969413772</v>
+        <v>7.507518291473446</v>
       </c>
       <c r="F10" t="n">
-        <v>-3.001944541931152</v>
+        <v>0.6346889734268188</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3590360581874847</v>
+        <v>-0.973566472530365</v>
       </c>
       <c r="H10" t="n">
-        <v>1.426217675209045</v>
+        <v>0.2535090744495392</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-2.357546925544736</v>
+        <v>4.738878250122034</v>
       </c>
       <c r="D11" t="n">
-        <v>3.453876137733455</v>
+        <v>7.207733154296871</v>
       </c>
       <c r="E11" t="n">
-        <v>3.317040443420424</v>
+        <v>21.9623451232909</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.064446285367012</v>
+        <v>-2.739883422851562</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0032070425804704</v>
+        <v>3.34677791595459</v>
       </c>
       <c r="H11" t="n">
-        <v>-1.773189067840576</v>
+        <v>-2.103209018707275</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.1309916377067535</v>
+        <v>-3.471131086349493</v>
       </c>
       <c r="D12" t="n">
-        <v>3.795689940452578</v>
+        <v>6.420480489730835</v>
       </c>
       <c r="E12" t="n">
-        <v>3.876870155334465</v>
+        <v>-4.152171969413772</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.5893322229385376</v>
+        <v>-3.001944541931152</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0039706239476799</v>
+        <v>0.3590360581874847</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.3778201639652252</v>
+        <v>1.426217675209045</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.2815589904785198</v>
+        <v>-2.357546925544736</v>
       </c>
       <c r="D13" t="n">
-        <v>4.85230040550232</v>
+        <v>3.453876137733455</v>
       </c>
       <c r="E13" t="n">
-        <v>2.205311059951784</v>
+        <v>3.317040443420424</v>
       </c>
       <c r="F13" t="n">
-        <v>0.3320052623748779</v>
+        <v>-0.064446285367012</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.7985535860061646</v>
+        <v>-0.0032070425804704</v>
       </c>
       <c r="H13" t="n">
-        <v>0.4050036668777466</v>
+        <v>-1.773189067840576</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-1.535586237907411</v>
+        <v>-0.1309916377067535</v>
       </c>
       <c r="D14" t="n">
-        <v>4.95532476902008</v>
+        <v>3.795689940452578</v>
       </c>
       <c r="E14" t="n">
-        <v>1.937351673841474</v>
+        <v>3.876870155334465</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0734565481543541</v>
+        <v>-0.5893322229385376</v>
       </c>
       <c r="G14" t="n">
-        <v>-1.579086661338806</v>
+        <v>-0.0039706239476799</v>
       </c>
       <c r="H14" t="n">
-        <v>-1.274570345878601</v>
+        <v>-0.3778201639652252</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.377771139144897</v>
+        <v>-0.2815589904785198</v>
       </c>
       <c r="D15" t="n">
-        <v>4.249351501464844</v>
+        <v>4.85230040550232</v>
       </c>
       <c r="E15" t="n">
-        <v>1.058028712868691</v>
+        <v>2.205311059951784</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.2518292069435119</v>
+        <v>0.3320052623748779</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.9622654914855956</v>
+        <v>-0.7985535860061646</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.384845107793808</v>
+        <v>0.4050036668777466</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.1868795156478872</v>
+        <v>-1.535586237907411</v>
       </c>
       <c r="D16" t="n">
-        <v>3.352623224258432</v>
+        <v>4.95532476902008</v>
       </c>
       <c r="E16" t="n">
-        <v>1.056536458432678</v>
+        <v>1.937351673841474</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0522289797663688</v>
+        <v>0.0734565481543541</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.2220495194196701</v>
+        <v>-1.579086661338806</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.2014328092336654</v>
+        <v>-1.274570345878601</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.04321670532226736</v>
+        <v>-1.377771139144897</v>
       </c>
       <c r="D17" t="n">
-        <v>5.682518005371086</v>
+        <v>4.249351501464844</v>
       </c>
       <c r="E17" t="n">
-        <v>1.995282649993894</v>
+        <v>1.058028712868691</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0580321997404098</v>
+        <v>-0.2518292069435119</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2347249686717987</v>
+        <v>-0.9622654914855956</v>
       </c>
       <c r="H17" t="n">
-        <v>0.4702135324478149</v>
+        <v>-0.384845107793808</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.4393689632415791</v>
+        <v>0.1868795156478872</v>
       </c>
       <c r="D18" t="n">
-        <v>3.92675977945327</v>
+        <v>3.352623224258432</v>
       </c>
       <c r="E18" t="n">
-        <v>1.474137753248212</v>
+        <v>1.056536458432678</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08491026610136029</v>
+        <v>-0.0522289797663688</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1505782902240753</v>
+        <v>-0.2220495194196701</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.0226020142436027</v>
+        <v>-0.2014328092336654</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.5461759567260746</v>
+        <v>-0.04321670532226736</v>
       </c>
       <c r="D19" t="n">
-        <v>4.010827064514163</v>
+        <v>5.682518005371086</v>
       </c>
       <c r="E19" t="n">
-        <v>1.266485691070556</v>
+        <v>1.995282649993894</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0704022198915481</v>
+        <v>0.0580321997404098</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0319177098572254</v>
+        <v>-0.2347249686717987</v>
       </c>
       <c r="H19" t="n">
-        <v>0.1357648074626922</v>
+        <v>0.4702135324478149</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.5815373659133911</v>
+        <v>-0.4393689632415791</v>
       </c>
       <c r="D20" t="n">
-        <v>4.265253961086274</v>
+        <v>3.92675977945327</v>
       </c>
       <c r="E20" t="n">
-        <v>1.277935206890107</v>
+        <v>1.474137753248212</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0236710291355848</v>
+        <v>0.08491026610136029</v>
       </c>
       <c r="G20" t="n">
-        <v>0.039248090237379</v>
+        <v>0.1505782902240753</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0468839071691036</v>
+        <v>-0.0226020142436027</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.6244049072265626</v>
+        <v>-0.5461759567260746</v>
       </c>
       <c r="D21" t="n">
-        <v>4.094969987869262</v>
+        <v>4.010827064514163</v>
       </c>
       <c r="E21" t="n">
-        <v>1.419118702411652</v>
+        <v>1.266485691070556</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0351247526705265</v>
+        <v>0.0704022198915481</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0268780700862407</v>
+        <v>0.0319177098572254</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.058184914290905</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.600552678108215</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3.905791997909546</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1.436552673578261</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0.0001527163112768</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.0290160998702049</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0039706239476799</v>
+        <v>0.1357648074626922</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-01-37/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-01-37/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.025566756725311</v>
+        <v>-2.203232884407044</v>
       </c>
       <c r="D2" t="n">
-        <v>3.52062651515007</v>
+        <v>3.565518021583557</v>
       </c>
       <c r="E2" t="n">
-        <v>2.27691987156868</v>
+        <v>2.421210885047912</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0397062413394451</v>
+        <v>-0.1018617823719978</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.0024434609804302</v>
+        <v>0.0229074470698833</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0332921557128429</v>
+        <v>0.0226020142436027</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.230706214904786</v>
+        <v>-2.176557183265686</v>
       </c>
       <c r="D3" t="n">
-        <v>3.561713695526123</v>
+        <v>3.694440901279449</v>
       </c>
       <c r="E3" t="n">
-        <v>2.031704187393189</v>
+        <v>2.333479553461074</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.0200058370828628</v>
+        <v>-0.0087048299610614</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0035124751739203</v>
+        <v>-0.0256563406437635</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0421497002243995</v>
+        <v>-0.0074830991216003</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.475497364997865</v>
+        <v>-2.326471328735352</v>
       </c>
       <c r="D4" t="n">
-        <v>3.523229420185089</v>
+        <v>3.527873754501343</v>
       </c>
       <c r="E4" t="n">
-        <v>2.537566900253297</v>
+        <v>2.532370328903198</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0039706239476799</v>
+        <v>-0.0534507073462009</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0705549344420433</v>
+        <v>-0.009010262787342</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0328340083360672</v>
+        <v>0.001527163083665</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-2.48767375946045</v>
+        <v>-2.219938099384308</v>
       </c>
       <c r="D5" t="n">
-        <v>3.061535835266112</v>
+        <v>3.655792444944382</v>
       </c>
       <c r="E5" t="n">
-        <v>3.86157149076462</v>
+        <v>2.356739014387131</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.0146607663482427</v>
+        <v>-0.0387899428606033</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2353358417749405</v>
+        <v>0.0113010071218013</v>
       </c>
       <c r="H5" t="n">
-        <v>0.07696902006864539</v>
+        <v>0.0397062413394451</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-2.442349374294281</v>
+        <v>-2.15459930896759</v>
       </c>
       <c r="D6" t="n">
-        <v>2.902286112308502</v>
+        <v>3.624111294746399</v>
       </c>
       <c r="E6" t="n">
-        <v>4.137762367725372</v>
+        <v>2.422300338745117</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0704022198915481</v>
+        <v>-0.011148290708661</v>
       </c>
       <c r="G6" t="n">
-        <v>0.2420553565025329</v>
+        <v>-0.08338310569524759</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08109235763549801</v>
+        <v>0.0064140851609408</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-2.809046030044556</v>
+        <v>-2.086719453334808</v>
       </c>
       <c r="D7" t="n">
-        <v>1.600962877273557</v>
+        <v>3.556297302246094</v>
       </c>
       <c r="E7" t="n">
-        <v>4.795935153961183</v>
+        <v>2.323985010385513</v>
       </c>
       <c r="F7" t="n">
-        <v>0.6050620079040527</v>
+        <v>-0.0229074470698833</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2802344262599945</v>
+        <v>-0.0862847194075584</v>
       </c>
       <c r="H7" t="n">
-        <v>0.07590000331401819</v>
+        <v>0.0215329993516206</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.426159977912904</v>
+        <v>-2.057324409484864</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2882512211799662</v>
+        <v>3.517749786376953</v>
       </c>
       <c r="E8" t="n">
-        <v>5.237384021282194</v>
+        <v>2.224772691726685</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1878410577774047</v>
+        <v>-0.0293215326964855</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7900014519691467</v>
+        <v>-0.0226020142436027</v>
       </c>
       <c r="H8" t="n">
-        <v>0.304669052362442</v>
+        <v>-0.0091629782691597</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-4.615099787712106</v>
+        <v>-2.064002573490143</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4410536289215286</v>
+        <v>3.512480080127716</v>
       </c>
       <c r="E9" t="n">
-        <v>4.911977410316469</v>
+        <v>2.171477824449539</v>
       </c>
       <c r="F9" t="n">
-        <v>0.3132211565971374</v>
+        <v>-0.0369573459029197</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.3736968040466308</v>
+        <v>-0.0378736443817615</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0494800843298435</v>
+        <v>-0.0192422550171613</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-5.570275843143422</v>
+        <v>-2.053778767585754</v>
       </c>
       <c r="D10" t="n">
-        <v>5.792195498943334</v>
+        <v>3.516274869441986</v>
       </c>
       <c r="E10" t="n">
-        <v>7.507518291473446</v>
+        <v>2.167593479156494</v>
       </c>
       <c r="F10" t="n">
-        <v>0.6346889734268188</v>
+        <v>0.0308486949652433</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.973566472530365</v>
+        <v>-0.0488692186772823</v>
       </c>
       <c r="H10" t="n">
-        <v>0.2535090744495392</v>
+        <v>-0.0198531206697225</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4.738878250122034</v>
+        <v>-2.025566756725311</v>
       </c>
       <c r="D11" t="n">
-        <v>7.207733154296871</v>
+        <v>3.52062651515007</v>
       </c>
       <c r="E11" t="n">
-        <v>21.9623451232909</v>
+        <v>2.27691987156868</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.739883422851562</v>
+        <v>-0.0397062413394451</v>
       </c>
       <c r="G11" t="n">
-        <v>3.34677791595459</v>
+        <v>-0.0024434609804302</v>
       </c>
       <c r="H11" t="n">
-        <v>-2.103209018707275</v>
+        <v>0.0332921557128429</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-3.471131086349493</v>
+        <v>-2.230706214904786</v>
       </c>
       <c r="D12" t="n">
-        <v>6.420480489730835</v>
+        <v>3.561713695526123</v>
       </c>
       <c r="E12" t="n">
-        <v>-4.152171969413772</v>
+        <v>2.031704187393189</v>
       </c>
       <c r="F12" t="n">
-        <v>-3.001944541931152</v>
+        <v>-0.0200058370828628</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3590360581874847</v>
+        <v>-0.0035124751739203</v>
       </c>
       <c r="H12" t="n">
-        <v>1.426217675209045</v>
+        <v>0.0421497002243995</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-2.357546925544736</v>
+        <v>-2.475497364997865</v>
       </c>
       <c r="D13" t="n">
-        <v>3.453876137733455</v>
+        <v>3.523229420185089</v>
       </c>
       <c r="E13" t="n">
-        <v>3.317040443420424</v>
+        <v>2.537566900253297</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.064446285367012</v>
+        <v>-0.0039706239476799</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0032070425804704</v>
+        <v>0.0705549344420433</v>
       </c>
       <c r="H13" t="n">
-        <v>-1.773189067840576</v>
+        <v>0.0328340083360672</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1309916377067535</v>
+        <v>-2.48767375946045</v>
       </c>
       <c r="D14" t="n">
-        <v>3.795689940452578</v>
+        <v>3.061535835266112</v>
       </c>
       <c r="E14" t="n">
-        <v>3.876870155334465</v>
+        <v>3.86157149076462</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5893322229385376</v>
+        <v>-0.0146607663482427</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.0039706239476799</v>
+        <v>0.2353358417749405</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.3778201639652252</v>
+        <v>0.07696902006864539</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.2815589904785198</v>
+        <v>-2.442349374294281</v>
       </c>
       <c r="D15" t="n">
-        <v>4.85230040550232</v>
+        <v>2.902286112308502</v>
       </c>
       <c r="E15" t="n">
-        <v>2.205311059951784</v>
+        <v>4.137762367725372</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3320052623748779</v>
+        <v>0.0704022198915481</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.7985535860061646</v>
+        <v>0.2420553565025329</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4050036668777466</v>
+        <v>0.08109235763549801</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.535586237907411</v>
+        <v>-2.809046030044556</v>
       </c>
       <c r="D16" t="n">
-        <v>4.95532476902008</v>
+        <v>1.600962877273557</v>
       </c>
       <c r="E16" t="n">
-        <v>1.937351673841474</v>
+        <v>4.795935153961183</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0734565481543541</v>
+        <v>0.6050620079040527</v>
       </c>
       <c r="G16" t="n">
-        <v>-1.579086661338806</v>
+        <v>0.2802344262599945</v>
       </c>
       <c r="H16" t="n">
-        <v>-1.274570345878601</v>
+        <v>0.07590000331401819</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.377771139144897</v>
+        <v>-3.426159977912904</v>
       </c>
       <c r="D17" t="n">
-        <v>4.249351501464844</v>
+        <v>-0.2882512211799662</v>
       </c>
       <c r="E17" t="n">
-        <v>1.058028712868691</v>
+        <v>5.237384021282194</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2518292069435119</v>
+        <v>0.1878410577774047</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.9622654914855956</v>
+        <v>0.7900014519691467</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.384845107793808</v>
+        <v>0.304669052362442</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.1868795156478872</v>
+        <v>-4.615099787712106</v>
       </c>
       <c r="D18" t="n">
-        <v>3.352623224258432</v>
+        <v>0.4410536289215286</v>
       </c>
       <c r="E18" t="n">
-        <v>1.056536458432678</v>
+        <v>4.911977410316469</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.0522289797663688</v>
+        <v>0.3132211565971374</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.2220495194196701</v>
+        <v>-0.3736968040466308</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.2014328092336654</v>
+        <v>0.0494800843298435</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.04321670532226736</v>
+        <v>-5.570275843143422</v>
       </c>
       <c r="D19" t="n">
-        <v>5.682518005371086</v>
+        <v>5.792195498943334</v>
       </c>
       <c r="E19" t="n">
-        <v>1.995282649993894</v>
+        <v>7.507518291473446</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0580321997404098</v>
+        <v>0.6346889734268188</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2347249686717987</v>
+        <v>-0.973566472530365</v>
       </c>
       <c r="H19" t="n">
-        <v>0.4702135324478149</v>
+        <v>0.2535090744495392</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.4393689632415791</v>
+        <v>4.738878250122034</v>
       </c>
       <c r="D20" t="n">
-        <v>3.92675977945327</v>
+        <v>7.207733154296871</v>
       </c>
       <c r="E20" t="n">
-        <v>1.474137753248212</v>
+        <v>21.9623451232909</v>
       </c>
       <c r="F20" t="n">
-        <v>0.08491026610136029</v>
+        <v>-2.739883422851562</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1505782902240753</v>
+        <v>3.34677791595459</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.0226020142436027</v>
+        <v>-2.103209018707275</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-3.471131086349493</v>
+      </c>
+      <c r="D21" t="n">
+        <v>6.420480489730835</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-4.152171969413772</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-3.001944541931152</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.3590360581874847</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1.426217675209045</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-2.357546925544736</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.453876137733455</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3.317040443420424</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.064446285367012</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.0032070425804704</v>
+      </c>
+      <c r="H22" t="n">
+        <v>-1.773189067840576</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.1309916377067535</v>
+      </c>
+      <c r="D23" t="n">
+        <v>3.795689940452578</v>
+      </c>
+      <c r="E23" t="n">
+        <v>3.876870155334465</v>
+      </c>
+      <c r="F23" t="n">
+        <v>-0.5893322229385376</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.0039706239476799</v>
+      </c>
+      <c r="H23" t="n">
+        <v>-0.3778201639652252</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.2815589904785198</v>
+      </c>
+      <c r="D24" t="n">
+        <v>4.85230040550232</v>
+      </c>
+      <c r="E24" t="n">
+        <v>2.205311059951784</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0.3320052623748779</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.7985535860061646</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.4050036668777466</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.535586237907411</v>
+      </c>
+      <c r="D25" t="n">
+        <v>4.95532476902008</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.937351673841474</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.0734565481543541</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-1.579086661338806</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-1.274570345878601</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.377771139144897</v>
+      </c>
+      <c r="D26" t="n">
+        <v>4.249351501464844</v>
+      </c>
+      <c r="E26" t="n">
+        <v>1.058028712868691</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.2518292069435119</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.9622654914855956</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.384845107793808</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1868795156478872</v>
+      </c>
+      <c r="D27" t="n">
+        <v>3.352623224258432</v>
+      </c>
+      <c r="E27" t="n">
+        <v>1.056536458432678</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.0522289797663688</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.2220495194196701</v>
+      </c>
+      <c r="H27" t="n">
+        <v>-0.2014328092336654</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
+        <v>-0.04321670532226736</v>
+      </c>
+      <c r="D28" t="n">
+        <v>5.682518005371086</v>
+      </c>
+      <c r="E28" t="n">
+        <v>1.995282649993894</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0.0580321997404098</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.2347249686717987</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.4702135324478149</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.4393689632415791</v>
+      </c>
+      <c r="D29" t="n">
+        <v>3.92675977945327</v>
+      </c>
+      <c r="E29" t="n">
+        <v>1.474137753248212</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.08491026610136029</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.1505782902240753</v>
+      </c>
+      <c r="H29" t="n">
+        <v>-0.0226020142436027</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
         <v>-0.5461759567260746</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D30" t="n">
         <v>4.010827064514163</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E30" t="n">
         <v>1.266485691070556</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F30" t="n">
         <v>0.0704022198915481</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G30" t="n">
         <v>0.0319177098572254</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H30" t="n">
         <v>0.1357648074626922</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.5815373659133911</v>
+      </c>
+      <c r="D31" t="n">
+        <v>4.265253961086274</v>
+      </c>
+      <c r="E31" t="n">
+        <v>1.277935206890107</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.0236710291355848</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.039248090237379</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0468839071691036</v>
       </c>
     </row>
   </sheetData>
